--- a/NovoCuidar HealthCare Proj.xlsx
+++ b/NovoCuidar HealthCare Proj.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diogo\OneDrive\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diogo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97712F33-8D2C-4106-BF2F-9B97454FC6A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA46E2BE-D0EF-4788-AEAE-CD6C20B1F913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{9611E499-EE63-4CDC-B0ED-3D6CBD00359E}"/>
+    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15720" tabRatio="572" xr2:uid="{9611E499-EE63-4CDC-B0ED-3D6CBD00359E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Estimativa" sheetId="1" r:id="rId1"/>
-    <sheet name="Gestão de Projeto" sheetId="2" r:id="rId2"/>
+    <sheet name="Gestão de Projeto (cliente)" sheetId="3" r:id="rId1"/>
+    <sheet name="Estimativa" sheetId="1" r:id="rId2"/>
+    <sheet name="Matriz de Acessos" sheetId="5" r:id="rId3"/>
+    <sheet name="Gestão Interna Projeto(técnica)" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="89">
   <si>
     <t>Horas por semana</t>
   </si>
@@ -107,6 +110,193 @@
   </si>
   <si>
     <t>Novo</t>
+  </si>
+  <si>
+    <t>Valor Total</t>
+  </si>
+  <si>
+    <t>montante base</t>
+  </si>
+  <si>
+    <t>valor hora</t>
+  </si>
+  <si>
+    <t>Fevereiro</t>
+  </si>
+  <si>
+    <t>Março</t>
+  </si>
+  <si>
+    <t>Abril</t>
+  </si>
+  <si>
+    <t>Maio</t>
+  </si>
+  <si>
+    <t>Junho</t>
+  </si>
+  <si>
+    <t>Opção A</t>
+  </si>
+  <si>
+    <t>Opção B</t>
+  </si>
+  <si>
+    <t>Entrada (no arranque do projeto)</t>
+  </si>
+  <si>
+    <t>Opção a</t>
+  </si>
+  <si>
+    <t>Fases</t>
+  </si>
+  <si>
+    <t>29 a 2</t>
+  </si>
+  <si>
+    <t>5 a 9</t>
+  </si>
+  <si>
+    <t>1 a 5</t>
+  </si>
+  <si>
+    <t>8 a 12</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>Opção c</t>
+  </si>
+  <si>
+    <t>15 a 19</t>
+  </si>
+  <si>
+    <t>22 a 29</t>
+  </si>
+  <si>
+    <t>1. Levantamento de requisitos (inclui sessão de preenchimento de Excel)</t>
+  </si>
+  <si>
+    <t>2. Criação de Automatismo que evita manipulação dos ficheiros excel</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data inicio </t>
+  </si>
+  <si>
+    <t>data fim</t>
+  </si>
+  <si>
+    <t>valor</t>
+  </si>
+  <si>
+    <t>cuidador</t>
+  </si>
+  <si>
+    <t>utente</t>
+  </si>
+  <si>
+    <t>a pagar cuidadores</t>
+  </si>
+  <si>
+    <t>a receber dos utentes</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>nn</t>
+  </si>
+  <si>
+    <t>utentes</t>
+  </si>
+  <si>
+    <t>2.1Desenvolvimentos</t>
+  </si>
+  <si>
+    <t>2.2Testes e correções</t>
+  </si>
+  <si>
+    <t>2.3 Apresentação de Novas Funcionalidades</t>
+  </si>
+  <si>
+    <t>3.1 Análise de Requisitos e DEV(Intro)</t>
+  </si>
+  <si>
+    <t>3.2 Desenvolvimentos</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>inclui solução de automatismo dos exceis</t>
+  </si>
+  <si>
+    <t>3. Criação de Bases de Dados (sem interface gráfica) , inserção de dados e desenvolvimento de queries que produzam o output esperado</t>
+  </si>
+  <si>
+    <t>1 -Módulo 1 da aplicação (Substituto de manipulação Excel)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3 Apresentação de novas funcionalidades e documentação  </t>
+  </si>
+  <si>
+    <t>Módulos</t>
+  </si>
+  <si>
+    <t>matriz</t>
+  </si>
+  <si>
+    <t>tipo de utilizaor</t>
+  </si>
+  <si>
+    <t>Gestão</t>
+  </si>
+  <si>
+    <t>Leitura</t>
+  </si>
+  <si>
+    <t>Escrita</t>
+  </si>
+  <si>
+    <t>tipo de acesso</t>
+  </si>
+  <si>
+    <t>Conteúdos</t>
+  </si>
+  <si>
+    <t>Utentes</t>
+  </si>
+  <si>
+    <t>Colaboradores</t>
+  </si>
+  <si>
+    <t>Objetivo Final (MÓDULO 1):  permitir que aplicação evite que tenham de andar a manipular exceis, através da criação de BD, interface gráfico com módulo que deverá poder ser utilizado pela equipa de Gestão.
+e depois que produza uma area de agregação com os valores a pagar aos cuidadores por periodo de tempo</t>
   </si>
 </sst>
 </file>
@@ -136,7 +326,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -155,8 +345,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -229,25 +443,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -262,18 +498,88 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -589,88 +895,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{748D758D-6ADC-4997-9D1F-D0DE68069660}">
-  <dimension ref="C2:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E88B346E-DE6B-4CE7-9FB7-7E26174F3111}">
+  <dimension ref="A2:AA21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="28.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C88E1B9-E546-48F2-9158-A2B901129F1E}">
-  <dimension ref="A2:AA12"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" customWidth="1"/>
+    <col min="5" max="5" width="22.21875" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" customWidth="1"/>
+    <col min="12" max="12" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>15</v>
+      <c r="A2" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="6">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
-        <v>31</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2"/>
+      <c r="D2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>41</v>
+      </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2">
         <v>29</v>
@@ -693,45 +963,45 @@
       <c r="AA2" s="2"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="3" t="s">
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="3" t="s">
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="3" t="s">
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="3" t="s">
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="3" t="s">
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="5"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="37"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C4" s="2"/>
@@ -808,6 +1078,943 @@
         <v>8</v>
       </c>
     </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="26"/>
+      <c r="B6" s="18">
+        <v>1</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="25"/>
+    </row>
+    <row r="7" spans="1:27" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="26"/>
+      <c r="B7" s="18">
+        <v>2</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="34"/>
+    </row>
+    <row r="8" spans="1:27" ht="40.799999999999997" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="26"/>
+      <c r="B8" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="20"/>
+    </row>
+    <row r="9" spans="1:27" ht="40.200000000000003" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="26"/>
+      <c r="B9" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="54.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="26"/>
+      <c r="B10" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="26"/>
+      <c r="B11" s="18">
+        <v>3</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="31"/>
+    </row>
+    <row r="12" spans="1:27" ht="32.4" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="26"/>
+      <c r="B12" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" s="29"/>
+    </row>
+    <row r="13" spans="1:27" ht="35.4" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="26"/>
+      <c r="B13" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="J13" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="31"/>
+    </row>
+    <row r="14" spans="1:27" ht="61.8" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="L14" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="M14" s="31"/>
+    </row>
+    <row r="21" spans="1:9" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="T3:W3"/>
+    <mergeCell ref="X3:AA3"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A5:A13"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J13:K13"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{748D758D-6ADC-4997-9D1F-D0DE68069660}">
+  <dimension ref="B1:I44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="30.77734375" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="5" max="5" width="37.21875" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3" s="16">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4">
+        <v>25</v>
+      </c>
+      <c r="E4" s="16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="E5" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11">
+        <f>(C3+D3)*C4*4*C5</f>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D13" s="2">
+        <f>C13*$C$11</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" ref="D14:D18" si="0">C14*$C$11</f>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I20">
+        <f>0.75/5</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24">
+        <f>(E3+F3)*4*E4*E5</f>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D26" s="2">
+        <f>C26*$C$11</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" ref="D27:D31" si="1">C27*$C$11</f>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B39" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D39" s="2">
+        <f>C39*$C$37</f>
+        <v>1200</v>
+      </c>
+      <c r="E39" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B40" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D40" s="2">
+        <f t="shared" ref="D40:D44" si="2">C40*$C$37</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D41" s="2">
+        <f t="shared" si="2"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B42" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D42" s="2">
+        <f t="shared" si="2"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B43" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D43" s="2">
+        <f t="shared" si="2"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B44" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="D44" s="2">
+        <f t="shared" si="2"/>
+        <v>2400</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D7CF2EB-32AC-47C4-BC9F-CEE3D30B4DCD}">
+  <dimension ref="D4:N22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" customWidth="1"/>
+    <col min="6" max="8" width="14.21875" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="39"/>
+      <c r="G6" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" s="23"/>
+      <c r="I6" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" s="39"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+    </row>
+    <row r="14" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+    </row>
+    <row r="17" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+    </row>
+    <row r="18" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+    </row>
+    <row r="19" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+    </row>
+    <row r="20" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+    </row>
+    <row r="21" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+    </row>
+    <row r="22" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="I6:J6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C88E1B9-E546-48F2-9158-A2B901129F1E}">
+  <dimension ref="A2:AA12"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:AA7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2">
+        <v>31</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2">
+        <v>29</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="37"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
@@ -815,7 +2022,7 @@
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="8" t="s">
         <v>18</v>
       </c>
     </row>
@@ -826,11 +2033,11 @@
       <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:27" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -839,7 +2046,7 @@
       <c r="B8">
         <v>3</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="10" t="s">
         <v>17</v>
       </c>
     </row>
@@ -850,7 +2057,7 @@
       <c r="B9">
         <v>4</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="13" t="s">
         <v>25</v>
       </c>
     </row>
@@ -861,11 +2068,11 @@
       <c r="B10">
         <v>5</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="15"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="42"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -874,10 +2081,10 @@
       <c r="B11">
         <v>6</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="17"/>
+      <c r="D11" s="12"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B12">
@@ -889,15 +2096,171 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="T3:W3"/>
+    <mergeCell ref="X3:AA3"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="H3:K3"/>
     <mergeCell ref="L3:O3"/>
     <mergeCell ref="P3:S3"/>
-    <mergeCell ref="T3:W3"/>
-    <mergeCell ref="X3:AA3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D54B247-74C1-45AB-9EE2-3A4431272BC9}">
+  <dimension ref="F7:S26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9:J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="12.88671875" customWidth="1"/>
+    <col min="8" max="8" width="12.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" t="s">
+        <v>63</v>
+      </c>
+      <c r="J9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" t="s">
+        <v>63</v>
+      </c>
+      <c r="J13">
+        <v>12</v>
+      </c>
+      <c r="P13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="P15" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>56</v>
+      </c>
+      <c r="R15" t="s">
+        <v>57</v>
+      </c>
+      <c r="S15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="16:19" x14ac:dyDescent="0.3">
+      <c r="P17" t="s">
+        <v>52</v>
+      </c>
+      <c r="S17">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="16:19" x14ac:dyDescent="0.3">
+      <c r="P18" t="s">
+        <v>53</v>
+      </c>
+      <c r="S18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="16:19" x14ac:dyDescent="0.3">
+      <c r="P19" t="s">
+        <v>54</v>
+      </c>
+      <c r="S19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="16:19" x14ac:dyDescent="0.3">
+      <c r="P20" t="s">
+        <v>55</v>
+      </c>
+      <c r="S20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="16:19" x14ac:dyDescent="0.3">
+      <c r="P24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="16:19" x14ac:dyDescent="0.3">
+      <c r="P26" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>56</v>
+      </c>
+      <c r="R26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/NovoCuidar HealthCare Proj.xlsx
+++ b/NovoCuidar HealthCare Proj.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diogo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/94300aa227e73562/Ambiente de Trabalho/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA46E2BE-D0EF-4788-AEAE-CD6C20B1F913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EFF2610-AC3C-4183-BB9C-257FD51C6BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15720" tabRatio="572" xr2:uid="{9611E499-EE63-4CDC-B0ED-3D6CBD00359E}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" tabRatio="513" xr2:uid="{9611E499-EE63-4CDC-B0ED-3D6CBD00359E}"/>
   </bookViews>
   <sheets>
     <sheet name="Gestão de Projeto (cliente)" sheetId="3" r:id="rId1"/>
-    <sheet name="Estimativa" sheetId="1" r:id="rId2"/>
-    <sheet name="Matriz de Acessos" sheetId="5" r:id="rId3"/>
-    <sheet name="Gestão Interna Projeto(técnica)" sheetId="2" r:id="rId4"/>
+    <sheet name="Gestão Interna Projeto(técnica)" sheetId="2" r:id="rId2"/>
+    <sheet name="Estimativa" sheetId="1" r:id="rId3"/>
+    <sheet name="Matriz de Acessos" sheetId="5" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="119">
   <si>
     <t>Horas por semana</t>
   </si>
@@ -148,9 +148,6 @@
     <t>Opção a</t>
   </si>
   <si>
-    <t>Fases</t>
-  </si>
-  <si>
     <t>29 a 2</t>
   </si>
   <si>
@@ -163,15 +160,6 @@
     <t>8 a 12</t>
   </si>
   <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>2.2</t>
-  </si>
-  <si>
-    <t>2.3</t>
-  </si>
-  <si>
     <t>Opção c</t>
   </si>
   <si>
@@ -229,30 +217,12 @@
     <t>utentes</t>
   </si>
   <si>
-    <t>2.1Desenvolvimentos</t>
-  </si>
-  <si>
     <t>2.2Testes e correções</t>
   </si>
   <si>
-    <t>2.3 Apresentação de Novas Funcionalidades</t>
-  </si>
-  <si>
-    <t>3.1 Análise de Requisitos e DEV(Intro)</t>
-  </si>
-  <si>
     <t>3.2 Desenvolvimentos</t>
   </si>
   <si>
-    <t>3.1</t>
-  </si>
-  <si>
-    <t>3.2</t>
-  </si>
-  <si>
-    <t>3.3</t>
-  </si>
-  <si>
     <t>inclui solução de automatismo dos exceis</t>
   </si>
   <si>
@@ -295,15 +265,136 @@
     <t>Colaboradores</t>
   </si>
   <si>
-    <t>Objetivo Final (MÓDULO 1):  permitir que aplicação evite que tenham de andar a manipular exceis, através da criação de BD, interface gráfico com módulo que deverá poder ser utilizado pela equipa de Gestão.
-e depois que produza uma area de agregação com os valores a pagar aos cuidadores por periodo de tempo</t>
+    <t>3.1 Análise de Requisitos e Início de Desenvolvimentos</t>
+  </si>
+  <si>
+    <t>MySQL :: Data Masking in MySQL</t>
+  </si>
+  <si>
+    <t>Escolha template Bootstrap</t>
+  </si>
+  <si>
+    <t>4. UI - Criar Login para utilizadores</t>
+  </si>
+  <si>
+    <t>4.1 Desenvolvimentos</t>
+  </si>
+  <si>
+    <t>4.3 Apresentação</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>6. UI - Controlo de acessos/permissões
+(Quem acede, onde acede , com que permissões?)</t>
+  </si>
+  <si>
+    <t>6.1 Desenvolvimentos</t>
+  </si>
+  <si>
+    <t>7. Validações finais</t>
+  </si>
+  <si>
+    <t>4.2 Testes e correções</t>
+  </si>
+  <si>
+    <t>6.2 Testes e correções</t>
+  </si>
+  <si>
+    <t>7.1 Testes e correções</t>
+  </si>
+  <si>
+    <t>7.3 Apresentação final</t>
+  </si>
+  <si>
+    <t>12 a 16</t>
+  </si>
+  <si>
+    <t>19 a 23</t>
+  </si>
+  <si>
+    <t>26 a 1</t>
+  </si>
+  <si>
+    <t>Janeiro</t>
+  </si>
+  <si>
+    <t>4 a 8</t>
+  </si>
+  <si>
+    <t>11 a 15</t>
+  </si>
+  <si>
+    <t>18 a 22</t>
+  </si>
+  <si>
+    <t>25 a 29</t>
+  </si>
+  <si>
+    <t>22 a 26</t>
+  </si>
+  <si>
+    <t>29 a 3</t>
+  </si>
+  <si>
+    <t>6 a 10</t>
+  </si>
+  <si>
+    <t>13 a 17</t>
+  </si>
+  <si>
+    <t>20 a 24</t>
+  </si>
+  <si>
+    <t>27 a 31</t>
+  </si>
+  <si>
+    <t>3 a 7</t>
+  </si>
+  <si>
+    <t>10 a 14</t>
+  </si>
+  <si>
+    <t>17 a 21</t>
+  </si>
+  <si>
+    <t>24 a 28</t>
+  </si>
+  <si>
+    <t>Sem. 2</t>
+  </si>
+  <si>
+    <t>2.1 
+Desenvolvimentos</t>
+  </si>
+  <si>
+    <t>2.3 Apresentação funcionalidades</t>
+  </si>
+  <si>
+    <t>5. UI/Backend - Criação de páginas, navegação e funcionalidades</t>
+  </si>
+  <si>
+    <t>5.1 Análise</t>
+  </si>
+  <si>
+    <t>5.2 Desenvolvimentos</t>
+  </si>
+  <si>
+    <t>5.3 Testes e correções</t>
+  </si>
+  <si>
+    <t>5.4 Apresentação</t>
+  </si>
+  <si>
+    <t>6.3 Apresentação</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,6 +412,22 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -353,24 +460,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -453,32 +560,304 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="mediumDashDot">
+        <color theme="9"/>
       </left>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="9"/>
+      </left>
+      <right style="medium">
+        <color theme="9"/>
+      </right>
+      <top style="medium">
+        <color theme="9"/>
+      </top>
+      <bottom style="medium">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="9"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="9"/>
+      </top>
+      <bottom style="medium">
+        <color theme="9"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
+      <right style="medium">
+        <color theme="9"/>
+      </right>
+      <top style="medium">
+        <color theme="9"/>
+      </top>
+      <bottom style="medium">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="9"/>
+      </right>
+      <top style="medium">
+        <color theme="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="9"/>
+      </top>
+      <bottom style="medium">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashDot">
+        <color theme="9"/>
+      </right>
+      <top style="medium">
+        <color theme="9"/>
+      </top>
+      <bottom style="medium">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="9"/>
+      </left>
+      <right style="medium">
+        <color theme="9"/>
+      </right>
+      <top style="medium">
+        <color theme="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="medium">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="medium">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </right>
+      <top style="medium">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="medium">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="7"/>
+      </left>
+      <right style="medium">
+        <color theme="7"/>
+      </right>
+      <top style="medium">
+        <color theme="7"/>
+      </top>
+      <bottom style="medium">
+        <color theme="7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="7"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="7"/>
+      </top>
+      <bottom style="medium">
+        <color theme="7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="7"/>
+      </right>
+      <top style="medium">
+        <color theme="7"/>
+      </top>
+      <bottom style="medium">
+        <color theme="7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4"/>
+      </left>
+      <right style="medium">
+        <color theme="4"/>
+      </right>
+      <top style="medium">
+        <color theme="4"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="4"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="4"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="4"/>
+      </right>
+      <top style="medium">
+        <color theme="4"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4"/>
+      </left>
+      <right style="medium">
+        <color theme="4"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="5"/>
+      </left>
+      <right style="medium">
+        <color theme="5"/>
+      </right>
+      <top style="medium">
+        <color theme="5"/>
+      </top>
+      <bottom style="medium">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="5"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="5"/>
+      </top>
+      <bottom style="medium">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="5"/>
+      </top>
+      <bottom style="medium">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="5"/>
+      </right>
+      <top style="medium">
+        <color theme="5"/>
+      </top>
+      <bottom style="medium">
+        <color theme="5"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -509,55 +888,9 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -567,6 +900,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -582,8 +918,110 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -597,6 +1035,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>88529</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>376</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70956FC4-9000-97B5-D179-50B8EE6A417F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2124075" y="4524375"/>
+          <a:ext cx="10379339" cy="4343776"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -896,51 +1383,700 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E88B346E-DE6B-4CE7-9FB7-7E26174F3111}">
-  <dimension ref="A2:AA21"/>
+  <dimension ref="A2:AC17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="M7" sqref="M7"/>
+      <selection pane="bottomLeft" sqref="A1:AC17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="17.77734375" customWidth="1"/>
-    <col min="5" max="5" width="22.21875" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" customWidth="1"/>
-    <col min="9" max="9" width="16.44140625" customWidth="1"/>
-    <col min="12" max="12" width="10.109375" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" customWidth="1"/>
+    <col min="2" max="4" width="8.88671875" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" customWidth="1"/>
+    <col min="7" max="9" width="8.88671875" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" customWidth="1"/>
+    <col min="14" max="14" width="10.5546875" customWidth="1"/>
+    <col min="15" max="15" width="13.33203125" customWidth="1"/>
+    <col min="16" max="17" width="8.88671875" customWidth="1"/>
+    <col min="18" max="18" width="13.44140625" customWidth="1"/>
+    <col min="19" max="19" width="8.88671875" customWidth="1"/>
+    <col min="20" max="20" width="12.88671875" customWidth="1"/>
+    <col min="21" max="22" width="8.88671875" customWidth="1"/>
+    <col min="23" max="23" width="12.5546875" customWidth="1"/>
+    <col min="24" max="24" width="13.44140625" customWidth="1"/>
+    <col min="25" max="27" width="8.88671875" customWidth="1"/>
+    <col min="28" max="28" width="13.77734375" customWidth="1"/>
+    <col min="29" max="29" width="3.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B3" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="30"/>
+      <c r="AA3" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB3" s="39"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>4</v>
+      </c>
+      <c r="E4" s="2">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2">
+        <v>6</v>
+      </c>
+      <c r="G4" s="2">
+        <v>7</v>
+      </c>
+      <c r="H4" s="2">
+        <v>8</v>
+      </c>
+      <c r="I4" s="2">
+        <v>9</v>
+      </c>
+      <c r="J4" s="2">
+        <v>10</v>
+      </c>
+      <c r="K4" s="2">
+        <v>11</v>
+      </c>
+      <c r="L4" s="2">
+        <v>12</v>
+      </c>
+      <c r="M4" s="2">
+        <v>13</v>
+      </c>
+      <c r="N4" s="2">
+        <v>14</v>
+      </c>
+      <c r="O4" s="2">
+        <v>15</v>
+      </c>
+      <c r="P4" s="2">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>17</v>
+      </c>
+      <c r="R4" s="2">
+        <v>18</v>
+      </c>
+      <c r="S4" s="2">
+        <v>19</v>
+      </c>
+      <c r="T4" s="2">
+        <v>20</v>
+      </c>
+      <c r="U4" s="2">
+        <v>21</v>
+      </c>
+      <c r="V4" s="2">
+        <v>22</v>
+      </c>
+      <c r="W4" s="2">
+        <v>23</v>
+      </c>
+      <c r="X4" s="2">
+        <v>24</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>25</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>26</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>27</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="43"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="41"/>
+      <c r="AC5" s="40"/>
+    </row>
+    <row r="6" spans="1:29" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="22"/>
+      <c r="B6" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="45"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" s="49"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="46"/>
+      <c r="T6" s="46"/>
+      <c r="U6" s="46"/>
+      <c r="V6" s="46"/>
+      <c r="W6" s="46"/>
+      <c r="X6" s="46"/>
+      <c r="Y6" s="46"/>
+      <c r="Z6" s="50"/>
+      <c r="AA6" s="51"/>
+      <c r="AB6" s="46"/>
+      <c r="AC6" s="40"/>
+    </row>
+    <row r="7" spans="1:29" ht="49.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="22"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="46"/>
+      <c r="S7" s="46"/>
+      <c r="T7" s="46"/>
+      <c r="U7" s="46"/>
+      <c r="V7" s="46"/>
+      <c r="W7" s="46"/>
+      <c r="X7" s="46"/>
+      <c r="Y7" s="46"/>
+      <c r="Z7" s="46"/>
+      <c r="AA7" s="46"/>
+      <c r="AB7" s="46"/>
+      <c r="AC7" s="40"/>
+    </row>
+    <row r="8" spans="1:29" ht="40.799999999999997" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="22"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="55"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" s="49"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="46"/>
+      <c r="T8" s="46"/>
+      <c r="U8" s="46"/>
+      <c r="V8" s="46"/>
+      <c r="W8" s="46"/>
+      <c r="X8" s="46"/>
+      <c r="Y8" s="46"/>
+      <c r="Z8" s="46"/>
+      <c r="AA8" s="46"/>
+      <c r="AB8" s="46"/>
+      <c r="AC8" s="40"/>
+    </row>
+    <row r="9" spans="1:29" ht="40.200000000000003" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="22"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="46"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="46"/>
+      <c r="S9" s="46"/>
+      <c r="T9" s="46"/>
+      <c r="U9" s="46"/>
+      <c r="V9" s="46"/>
+      <c r="W9" s="46"/>
+      <c r="X9" s="46"/>
+      <c r="Y9" s="46"/>
+      <c r="Z9" s="46"/>
+      <c r="AA9" s="46"/>
+      <c r="AB9" s="46"/>
+      <c r="AC9" s="40"/>
+    </row>
+    <row r="10" spans="1:29" ht="43.2" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="22"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" s="50"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="59"/>
+      <c r="T10" s="60"/>
+      <c r="U10" s="46"/>
+      <c r="V10" s="46"/>
+      <c r="W10" s="46"/>
+      <c r="X10" s="46"/>
+      <c r="Y10" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z10" s="52"/>
+      <c r="AA10" s="52"/>
+      <c r="AB10" s="53"/>
+      <c r="AC10" s="40"/>
+    </row>
+    <row r="11" spans="1:29" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="22"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="N11" s="65"/>
+      <c r="O11" s="65"/>
+      <c r="P11" s="65"/>
+      <c r="Q11" s="65"/>
+      <c r="R11" s="65"/>
+      <c r="S11" s="65"/>
+      <c r="T11" s="46"/>
+      <c r="U11" s="46"/>
+      <c r="V11" s="46"/>
+      <c r="W11" s="46"/>
+      <c r="X11" s="46"/>
+      <c r="Y11" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z11" s="52"/>
+      <c r="AA11" s="52"/>
+      <c r="AB11" s="53"/>
+    </row>
+    <row r="12" spans="1:29" ht="42" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="22"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="63"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="O12" s="59"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="59"/>
+      <c r="S12" s="59"/>
+      <c r="T12" s="59"/>
+      <c r="U12" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="V12" s="67"/>
+      <c r="W12" s="67"/>
+      <c r="X12" s="68"/>
+      <c r="Y12" s="46"/>
+      <c r="Z12" s="46"/>
+      <c r="AA12" s="46"/>
+      <c r="AB12" s="56" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" ht="40.799999999999997" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="22"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="63"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="P13" s="60"/>
+      <c r="Q13" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="R13" s="60"/>
+      <c r="S13" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="T13" s="60"/>
+      <c r="U13" s="46"/>
+      <c r="V13" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="W13" s="67"/>
+      <c r="X13" s="68"/>
+      <c r="Y13" s="46"/>
+      <c r="Z13" s="46"/>
+      <c r="AA13" s="46"/>
+      <c r="AB13" s="46"/>
+    </row>
+    <row r="14" spans="1:29" ht="57.6" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="22"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="J14" s="63"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="46"/>
+      <c r="P14" s="69" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q14" s="46"/>
+      <c r="R14" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="S14" s="46"/>
+      <c r="T14" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="U14" s="46"/>
+      <c r="V14" s="46"/>
+      <c r="W14" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="X14" s="46"/>
+      <c r="Y14" s="46"/>
+      <c r="Z14" s="46"/>
+      <c r="AA14" s="46"/>
+      <c r="AB14" s="46"/>
+    </row>
+    <row r="15" spans="1:29" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="22"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="46"/>
+      <c r="S15" s="46"/>
+      <c r="T15" s="46"/>
+      <c r="U15" s="46"/>
+      <c r="V15" s="46"/>
+      <c r="W15" s="46"/>
+      <c r="X15" s="70" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y15" s="46"/>
+      <c r="Z15" s="46"/>
+      <c r="AA15" s="46"/>
+      <c r="AB15" s="46"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A16" s="22"/>
+    </row>
+    <row r="17" spans="1:1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="Y11:AB11"/>
+    <mergeCell ref="A5:A17"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="N12:T12"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="Y10:AB10"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="M10:T10"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C88E1B9-E546-48F2-9158-A2B901129F1E}">
+  <dimension ref="A2:AA16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>41</v>
-      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2">
+        <v>31</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2">
         <v>29</v>
@@ -966,42 +2102,42 @@
       <c r="C3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="35" t="s">
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="35" t="s">
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="35" t="s">
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="35" t="s">
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="37"/>
-      <c r="X3" s="35" t="s">
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36"/>
-      <c r="AA3" s="37"/>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="21"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C4" s="2"/>
@@ -1078,138 +2214,106 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="26"/>
-      <c r="B6" s="18">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6">
         <v>1</v>
       </c>
-      <c r="E6" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="25"/>
-    </row>
-    <row r="7" spans="1:27" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
-      <c r="B7" s="18">
+      <c r="C6" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7">
         <v>2</v>
       </c>
-      <c r="F7" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="34"/>
-    </row>
-    <row r="8" spans="1:27" ht="40.799999999999997" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
-      <c r="B8" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" s="20"/>
-    </row>
-    <row r="9" spans="1:27" ht="40.200000000000003" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
-      <c r="B9" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" ht="54.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
-      <c r="B10" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" s="21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="26"/>
-      <c r="B11" s="18">
+      <c r="C7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:27" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8">
         <v>3</v>
       </c>
-      <c r="H11" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="31"/>
-    </row>
-    <row r="12" spans="1:27" ht="32.4" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="26"/>
-      <c r="B12" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="H12" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="I12" s="29"/>
-    </row>
-    <row r="13" spans="1:27" ht="35.4" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="26"/>
-      <c r="B13" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="J13" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="K13" s="31"/>
-    </row>
-    <row r="14" spans="1:27" ht="61.8" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="L14" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="M14" s="31"/>
-    </row>
-    <row r="21" spans="1:9" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
+      <c r="C8" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="26"/>
+      <c r="E10" s="27"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="12"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="P3:S3"/>
+  <mergeCells count="7">
     <mergeCell ref="T3:W3"/>
     <mergeCell ref="X3:AA3"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="C10:E10"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="H3:K3"/>
     <mergeCell ref="L3:O3"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="A5:A13"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="P3:S3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{748D758D-6ADC-4997-9D1F-D0DE68069660}">
   <dimension ref="B1:I44"/>
   <sheetViews>
@@ -1472,7 +2576,7 @@
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
@@ -1495,7 +2599,7 @@
         <v>1200</v>
       </c>
       <c r="E39" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
@@ -1563,12 +2667,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D7CF2EB-32AC-47C4-BC9F-CEE3D30B4DCD}">
-  <dimension ref="D4:N22"/>
+  <dimension ref="D4:N55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1583,25 +2687,25 @@
   <sheetData>
     <row r="4" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D6" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6" s="39"/>
-      <c r="G6" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="H6" s="23"/>
-      <c r="I6" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="J6" s="39"/>
+        <v>70</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="24"/>
+      <c r="G6" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" s="18"/>
+      <c r="I6" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" s="24"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -1609,25 +2713,25 @@
     </row>
     <row r="7" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D7" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -1636,7 +2740,7 @@
     </row>
     <row r="8" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D8" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -1831,281 +2935,21 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D55" s="28" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="I6:J6"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D55" r:id="rId1" display="https://dev.mysql.com/blog-archive/data-masking-in-mysql/" xr:uid="{9F3373ED-3D30-436B-8E51-321BA7A7DA3A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C88E1B9-E546-48F2-9158-A2B901129F1E}">
-  <dimension ref="A2:AA12"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:AA7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
-        <v>31</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2">
-        <v>29</v>
-      </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="C3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="37"/>
-      <c r="X3" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36"/>
-      <c r="AA3" s="37"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="1:27" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="42"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11">
-        <v>6</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="12"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B12">
-        <v>7</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="T3:W3"/>
-    <mergeCell ref="X3:AA3"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="P3:S3"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2125,27 +2969,27 @@
   <sheetData>
     <row r="7" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="J9">
         <v>12</v>
@@ -2153,10 +2997,10 @@
     </row>
     <row r="10" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J10">
         <v>5</v>
@@ -2164,10 +3008,10 @@
     </row>
     <row r="11" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="J11">
         <v>5</v>
@@ -2175,10 +3019,10 @@
     </row>
     <row r="12" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G12" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J12">
         <v>5</v>
@@ -2186,35 +3030,35 @@
     </row>
     <row r="13" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F13" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G13" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="J13">
         <v>12</v>
       </c>
       <c r="P13" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="6:19" x14ac:dyDescent="0.3">
       <c r="P15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="Q15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="R15" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="S15" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="16:19" x14ac:dyDescent="0.3">
       <c r="P17" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="S17">
         <v>24</v>
@@ -2222,7 +3066,7 @@
     </row>
     <row r="18" spans="16:19" x14ac:dyDescent="0.3">
       <c r="P18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="S18">
         <v>5</v>
@@ -2230,7 +3074,7 @@
     </row>
     <row r="19" spans="16:19" x14ac:dyDescent="0.3">
       <c r="P19" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="S19">
         <v>5</v>
@@ -2238,7 +3082,7 @@
     </row>
     <row r="20" spans="16:19" x14ac:dyDescent="0.3">
       <c r="P20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="S20">
         <v>5</v>
@@ -2246,18 +3090,18 @@
     </row>
     <row r="24" spans="16:19" x14ac:dyDescent="0.3">
       <c r="P24" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="16:19" x14ac:dyDescent="0.3">
       <c r="P26" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="Q26" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="R26" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
